--- a/metadata/metadata_example.xlsx
+++ b/metadata/metadata_example.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="203">
   <si>
     <t>sample_num</t>
   </si>
@@ -407,9 +407,6 @@
     <t>output_dir</t>
   </si>
   <si>
-    <t>The output directory for this project. All the results from the pipeline as well as the intermediary steps will be placed here</t>
-  </si>
-  <si>
     <t>grouping</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>If primers are present, indicate the name and location of the reverse primer.</t>
   </si>
   <si>
-    <t>If primers are present, indicate the exact nucleotide sequence the forward primer. Ambialent nucleotides such as "R", "Y", etc. are supported</t>
-  </si>
-  <si>
     <t>If primers are present, indicate the exact nucleotide sequence the reverse primer. Ambialent nucleotides such as "R", "Y", etc. are supported</t>
   </si>
   <si>
@@ -572,12 +566,6 @@
     <t>~/tmp/demo_project/</t>
   </si>
   <si>
-    <t>How short can a read be at a minimum (after primer tunrcation) before we discard that read? No value will disable this check.</t>
-  </si>
-  <si>
-    <t>How long can a read be at a maximum (after primer tunrcation) before we discard that read? No value will disable this check.</t>
-  </si>
-  <si>
     <t>Demo project for metadata example</t>
   </si>
   <si>
@@ -620,10 +608,34 @@
     <t>For all these environemental SRA fields, only certain values are permitted.</t>
   </si>
   <si>
-    <t>You are free to describe the project name with any characters you want. Within the sample project however this field must be identical for all entries.</t>
-  </si>
-  <si>
     <t>This typically represents the version number of the software running on the sequencer.</t>
+  </si>
+  <si>
+    <t>The output directory for this project. All the results from the pipeline as well as the intermediary steps will be placed here.</t>
+  </si>
+  <si>
+    <t>If primers are present, indicate the exact nucleotide sequence the forward primer. Ambialent nucleotides such as "R", "Y", etc. are supported.</t>
+  </si>
+  <si>
+    <t>You are free to describe the project name with any characters you want. Within the same project however this field must be identical for all entries.</t>
+  </si>
+  <si>
+    <t>How short can a read be at a minimum (after primer truncation) before we discard that read? No value will disable this check.</t>
+  </si>
+  <si>
+    <t>How long can a read be at a maximum (after primer truncation) before we discard that read? No value will disable this check.</t>
+  </si>
+  <si>
+    <t>How large should the rolling average window be in base pairs when we filter reads based on their quality scores? No value will disable this check.</t>
+  </si>
+  <si>
+    <t>What quality score value should every window have at a minimum before we discard that read? No value will disable this check.</t>
+  </si>
+  <si>
+    <t>phred_window_size</t>
+  </si>
+  <si>
+    <t>phred_threshold</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW12"/>
+  <dimension ref="A1:BX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,10 +1107,12 @@
     <col min="72" max="72" width="20.5" style="4" customWidth="1"/>
     <col min="73" max="73" width="19.33203125" style="4" customWidth="1"/>
     <col min="74" max="74" width="20.83203125" style="4" customWidth="1"/>
-    <col min="75" max="16384" width="10.83203125" style="4"/>
+    <col min="75" max="75" width="22.5" style="4" customWidth="1"/>
+    <col min="76" max="76" width="20.33203125" style="4" customWidth="1"/>
+    <col min="77" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" s="1" customFormat="1" ht="154" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1115,19 +1129,19 @@
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>36</v>
@@ -1145,7 +1159,7 @@
         <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>50</v>
@@ -1154,7 +1168,7 @@
         <v>51</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>58</v>
@@ -1175,19 +1189,19 @@
         <v>65</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>75</v>
@@ -1196,43 +1210,43 @@
         <v>76</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>123</v>
@@ -1241,13 +1255,13 @@
         <v>123</v>
       </c>
       <c r="BF1" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>124</v>
@@ -1256,37 +1270,40 @@
         <v>124</v>
       </c>
       <c r="BK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BT1" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="BU1" s="1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>122</v>
+        <v>199</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:76" s="2" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1306,10 +1323,10 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1393,7 +1410,7 @@
         <v>81</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>83</v>
@@ -1447,28 +1464,34 @@
         <v>125</v>
       </c>
       <c r="BO2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP2" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="BQ2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BS2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BU2" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="BV2" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1485,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>101</v>
@@ -1509,10 +1532,10 @@
         <v>26132364</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>56</v>
@@ -1524,19 +1547,19 @@
         <v>55</v>
       </c>
       <c r="AE3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI3" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK3" s="4">
         <v>28.768324649687713</v>
@@ -1551,7 +1574,7 @@
         <v>82</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR3" s="4" t="s">
         <v>84</v>
@@ -1560,7 +1583,7 @@
         <v>89</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU3" s="4">
         <v>250</v>
@@ -1569,25 +1592,25 @@
         <v>250</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF3" s="8">
         <v>44012</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS3" s="4">
         <v>0</v>
@@ -1602,7 +1625,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1619,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>101</v>
@@ -1643,10 +1666,10 @@
         <v>32776171</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>56</v>
@@ -1658,19 +1681,19 @@
         <v>55</v>
       </c>
       <c r="AE4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI4" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK4" s="4">
         <v>11.041282374896175</v>
@@ -1685,7 +1708,7 @@
         <v>82</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR4" s="4" t="s">
         <v>84</v>
@@ -1694,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="AT4" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU4" s="4">
         <v>250</v>
@@ -1703,25 +1726,25 @@
         <v>250</v>
       </c>
       <c r="AX4" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY4" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ4" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF4" s="8">
         <v>44012</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS4" s="4">
         <v>0</v>
@@ -1736,7 +1759,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1753,10 +1776,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>101</v>
@@ -1777,10 +1800,10 @@
         <v>15374446</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>56</v>
@@ -1792,19 +1815,19 @@
         <v>55</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI5" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK5" s="4">
         <v>30.481861428432737</v>
@@ -1819,7 +1842,7 @@
         <v>82</v>
       </c>
       <c r="AQ5" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR5" s="4" t="s">
         <v>84</v>
@@ -1828,7 +1851,7 @@
         <v>89</v>
       </c>
       <c r="AT5" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU5" s="4">
         <v>250</v>
@@ -1837,25 +1860,25 @@
         <v>250</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY5" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ5" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF5" s="8">
         <v>44012</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS5" s="4">
         <v>0</v>
@@ -1870,7 +1893,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1887,10 +1910,10 @@
         <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>101</v>
@@ -1911,10 +1934,10 @@
         <v>20236325</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>56</v>
@@ -1926,19 +1949,19 @@
         <v>55</v>
       </c>
       <c r="AE6" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI6" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK6" s="4">
         <v>9.7737937283583065</v>
@@ -1953,7 +1976,7 @@
         <v>82</v>
       </c>
       <c r="AQ6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR6" s="4" t="s">
         <v>84</v>
@@ -1962,7 +1985,7 @@
         <v>89</v>
       </c>
       <c r="AT6" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU6" s="4">
         <v>250</v>
@@ -1971,25 +1994,25 @@
         <v>250</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY6" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ6" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF6" s="8">
         <v>44012</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS6" s="4">
         <v>0</v>
@@ -2004,7 +2027,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2021,10 +2044,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>101</v>
@@ -2045,10 +2068,10 @@
         <v>23475093</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>56</v>
@@ -2060,19 +2083,19 @@
         <v>55</v>
       </c>
       <c r="AE7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK7" s="4">
         <v>11.207943647994133</v>
@@ -2087,7 +2110,7 @@
         <v>82</v>
       </c>
       <c r="AQ7" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR7" s="4" t="s">
         <v>84</v>
@@ -2096,7 +2119,7 @@
         <v>89</v>
       </c>
       <c r="AT7" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU7" s="4">
         <v>250</v>
@@ -2105,25 +2128,25 @@
         <v>250</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY7" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ7" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA7" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF7" s="8">
         <v>44012</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS7" s="4">
         <v>0</v>
@@ -2138,7 +2161,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2155,10 +2178,10 @@
         <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>101</v>
@@ -2179,10 +2202,10 @@
         <v>19019112</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>56</v>
@@ -2194,19 +2217,19 @@
         <v>55</v>
       </c>
       <c r="AE8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI8" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK8" s="4">
         <v>11.713860392867545</v>
@@ -2221,7 +2244,7 @@
         <v>82</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR8" s="4" t="s">
         <v>84</v>
@@ -2230,7 +2253,7 @@
         <v>89</v>
       </c>
       <c r="AT8" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU8" s="4">
         <v>250</v>
@@ -2239,25 +2262,25 @@
         <v>250</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY8" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ8" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA8" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF8" s="8">
         <v>44012</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BS8" s="4">
         <v>0</v>
@@ -2272,7 +2295,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2289,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>101</v>
@@ -2313,10 +2336,10 @@
         <v>23417975</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>56</v>
@@ -2328,19 +2351,19 @@
         <v>55</v>
       </c>
       <c r="AE9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI9" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK9" s="4">
         <v>6.0511526056330434</v>
@@ -2355,7 +2378,7 @@
         <v>82</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR9" s="4" t="s">
         <v>84</v>
@@ -2364,7 +2387,7 @@
         <v>89</v>
       </c>
       <c r="AT9" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU9" s="4">
         <v>250</v>
@@ -2373,25 +2396,25 @@
         <v>250</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY9" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ9" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA9" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF9" s="8">
         <v>44012</v>
       </c>
       <c r="BM9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BS9" s="4">
         <v>0</v>
@@ -2406,7 +2429,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2423,10 +2446,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>101</v>
@@ -2447,10 +2470,10 @@
         <v>21959016</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>56</v>
@@ -2462,19 +2485,19 @@
         <v>55</v>
       </c>
       <c r="AE10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI10" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK10" s="4">
         <v>7.8838872528397141</v>
@@ -2489,7 +2512,7 @@
         <v>82</v>
       </c>
       <c r="AQ10" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR10" s="4" t="s">
         <v>84</v>
@@ -2498,7 +2521,7 @@
         <v>89</v>
       </c>
       <c r="AT10" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU10" s="4">
         <v>250</v>
@@ -2507,25 +2530,25 @@
         <v>250</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY10" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ10" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA10" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF10" s="8">
         <v>44012</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BS10" s="4">
         <v>0</v>
@@ -2540,7 +2563,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2557,10 +2580,10 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>101</v>
@@ -2581,10 +2604,10 @@
         <v>19349700</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>56</v>
@@ -2596,19 +2619,19 @@
         <v>55</v>
       </c>
       <c r="AE11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI11" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI11" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK11" s="4">
         <v>11.490566648328533</v>
@@ -2623,7 +2646,7 @@
         <v>82</v>
       </c>
       <c r="AQ11" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR11" s="4" t="s">
         <v>84</v>
@@ -2632,7 +2655,7 @@
         <v>89</v>
       </c>
       <c r="AT11" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU11" s="4">
         <v>250</v>
@@ -2641,25 +2664,25 @@
         <v>250</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY11" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ11" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA11" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF11" s="8">
         <v>44012</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BS11" s="4">
         <v>0</v>
@@ -2674,7 +2697,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2691,10 +2714,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>101</v>
@@ -2715,10 +2738,10 @@
         <v>24640453</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>56</v>
@@ -2730,19 +2753,19 @@
         <v>55</v>
       </c>
       <c r="AE12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI12" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="AK12" s="4">
         <v>4.5328630141419373</v>
@@ -2757,7 +2780,7 @@
         <v>82</v>
       </c>
       <c r="AQ12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR12" s="4" t="s">
         <v>84</v>
@@ -2766,7 +2789,7 @@
         <v>89</v>
       </c>
       <c r="AT12" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AU12" s="4">
         <v>250</v>
@@ -2775,25 +2798,25 @@
         <v>250</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AY12" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ12" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA12" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BF12" s="8">
         <v>44012</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BS12" s="4">
         <v>0</v>
